--- a/biology/Médecine/Valentin_Van_Hassel/Valentin_Van_Hassel.xlsx
+++ b/biology/Médecine/Valentin_Van_Hassel/Valentin_Van_Hassel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valentin Van Hassel (1852-1938) est un médecin, hygiéniste et écrivain belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Valentin Van Hassel est le fils de Victor Van Hassel, médecin vétérinaire, et de Valentine Burlion. Il est né à Pâturages, au cœur du Borinage le 10 septembre 1852.
 Après des humanités au collège de Nivelles où il a comme condisciple, Théo Hannon (1851-1916), il s'oriente vers la médecine et s'inscrit à l'Université libre de Bruxelles.
@@ -544,7 +558,9 @@
           <t>Le retour au pays</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine en 1877, il installe son cabinet dans son village natal malgré la proposition de ses maîtres de l'attacher à un hôpital bruxellois. Le président de la faculté lui proposera même une place de professeur pour le cours d’accouchement. Rien n’y fait. C'est que Van Hassel à la fibre sociale, il rêve de soulager les misères. À son retour au pays, il crée Le Cercle médical borain, dont il restera secrétaire perpétuel jusqu'à sa mort.
 Il écrira, cinquante ans plus tard : « Un jour, sortant de l’Université et des hôpitaux, je me suis trouvé sur le pavé de mon village, cherchant d’où soufflait le vent et d’où viendraient les malades et les souffreteux, au milieu desquels j’allais passer le reste de mon existence. Dès lors, je fut saisi par les dents d’un engrenage gigantesque, capricieux, tyrannique, qui me tira à hue, qui me refoula à dia et je fus entraîné irrésistiblement dans la ronde des malheureux auxquels j’avais lié ma vie.
@@ -577,7 +593,9 @@
           <t>L’éducateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant l’hiver 1877, s’est créé à Mons, dans la mouvance du libéralisme progressiste, un "comité de la société d’éducation populaire" : les « Réunions Populaires de Mons et du Hainaut ». Cette association a pour but de participer à l’instruction du plus grand nombre et publie un « Bulletin des réunions populaires de Mons et du Hainaut ». Séduit par ce projet d’éducation permanente, Van Hassel crée dès février 1878, un sous-comité à Pâturages.
 Lors de la séance inaugurale, il déclare : « Instruire en amusant, tel est le vieux dicton qui pourrait caractériser notre entreprise » . Ce que les réunions populaires entendent « entretenir chez ceux et celles qui ont quitté l’école primaire le goût de la littérature et des sciences et de toutes les connaissances utiles ». Le cercle se donne comme objectif de favoriser 
@@ -619,7 +637,9 @@
           <t>Le médecin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine le passionne. Dès ses études, où il se distingue comme un étudiant brillant, il participe aux travaux de la Société d’anatomie pathologique dont il assure occasionnellement le secrétariat et collabore à La Presse médicale.
 C'est avec Antoine Depage  qu'il s'initie à la chirurgie moderne, pratiquant des interventions abdominales à l'aide des techniques les plus récentes. Passionné de technique médicale, il crée en 1892 la revue Les Annales médico-chirurgicales qui deviendront en 1896, le Bulletin officiel de la fédération des syndicats médicaux du Hainaut. Assistant du Docteur Petit, un chirurgien de Pâturages, il lui succède en 1898. Van Hassel se spécialise dans les maladies des femmes. Il fonde à Mons, avec Lecocq et Daubresse, une clinique gynécologique.
@@ -664,7 +684,9 @@
           <t>L’écrivain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Homme de lettres, Van Hassel collabore dès 1870 au Journal des étudiants de l'Université libre de Bruxelles. L'année d'après il tient une chronique dans Les Nouvelles de Bontemps puis à La Chronique dirigée par Victor Halleux dont il restera un fidèle collaborateur jusqu’en 1914. Avec Théo Hannon, l’ami de toujours, il rencontre Charles De Coster, Henri Conscience, Camille Lemonnier, Georges Eekhoud, Émile Verhaeren, Henri Maus, Jean Rousseau, directeur des Beaux-Arts...
 Dans l’atelier de Théodore Hannon, près de la place du Luxembourg, on organise des séances de lecture qui enthousiasment ces jeunes Turcs, rêvant de gloire littéraire. Verhaeren les charme avec Les Flamandes, Eeckoud récite ses poèmes de Myrtes et Cyprès, Lemonnier ses Contes flamands et wallons.
@@ -706,7 +728,9 @@
           <t>Le libéral</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre du  parti libéral, il fonde vers 1878 avec Fulgence Masson et Omer Goffinet Le Journal du Borinage, organe de propagande, puis La Gazette du Borinage qu'il rédige avec quelques amis de Dour.  Sous la direction d’Edgard Cantineaux, ce journal mène d’ardentes campagnes en faveur du suffrage universel, cette position est très en avance sur son temps puisque les libéraux progressistes belges ne s’y rallieront définitivement qu’en 1890. Proche des libéraux progressistes, il parait jusqu’en 1914. Van Hassel collabore à La Nation, à L'Europe, à La revue artistique d'Anvers, à La Tribune de Mons. Il est surtout journaliste régulier à La Province, quotidien libéral créé en 1907 à l’initiative d’un groupe de libéraux de Mons et dont Albert Libiez, le gendre de Van Hassel, fut rédacteur en Chef à partir de 1908.
 Représentant de Mons à l'Assemblée Wallonne en 1920, il est collaborateur de La Vie wallonne.
@@ -741,7 +765,9 @@
           <t>Pour conclure</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Valentin Van Hassel était un homme du XIXe siècle. Passionné par la médecine il avait cette foi inébranlable en la Science héritée du positivisme. Il avait le goût de la nouveauté plus que du changement, il concevait son métier comme un sacerdoce, se voulait au service des déshérités mais sa démarche était empreinte de paternalisme et de conservatisme. Écrivain, il se cantonna à des œuvres sages et sans dimension sociale affirmée. Médecin, il fut un partisan d’une médecine sociale moderne plus pour conserver les intérêts des patrons que pour servir la classe ouvrière. Vulgarisateur, il était de ceux qui assénaient de grandes vérités aux travailleurs sans réellement chercher à développer leur esprit critique. Il n’en reste pas moins qu’il a marqué le Borinage, qu’il fut, avec d’autres, à l’origine de nombreuses innovations, qu’il participa aux grands débats de son temps en s’illustrant par des prises de positions avancées. Il n’entre pas dans nos intentions de louanger ou de condamner, nous intéressant à Valentin Van Hassel, nous avons simplement voulu cerner une personnalité et approcher les motivations d’un homme dont, à tout le moins, on peut dire qu’il est de ceux qui font un pays.
 </t>
